--- a/fix-example-resources/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/fix-example-resources/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:33:54+00:00</t>
+    <t>2025-12-08T17:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
